--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationvitalsigns.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationvitalsigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:59:53+00:00</t>
+    <t>2024-05-29T06:58:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This AT IPS profile for the Observation resource is derived from the general Observation resource in absence of a corresponding profile in the HL7® Austria FHIR® Core Implementation Guide and also ensures IPS conformity via the IPS profile referenced by the so-called imposeProfile extension.</t>
+    <t>This AT IPS profile for the Observation resource is derived from the general vital signs profile.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationvitalsigns.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationvitalsigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T06:58:17+00:00</t>
+    <t>2024-05-29T12:02:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationvitalsigns.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationvitalsigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T12:02:27+00:00</t>
+    <t>2024-06-19T12:04:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationvitalsigns.xlsx
+++ b/r4-ELGA-AustrianPatientSummary-main/StructureDefinition-at-ips-observationvitalsigns.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T12:04:55+00:00</t>
+    <t>2024-10-16T10:23:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
